--- a/Översikt BOXHOLM.xlsx
+++ b/Översikt BOXHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45911.47519675926</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>46008.57405092593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>46002.69190972222</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>45894.52324074074</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>45904.37657407407</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45629.38376157408</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45532</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>45870.40766203704</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>46002.68706018518</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44537</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45170</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>46002.69612268519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>46044.39729166667</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>46029</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>44593.60979166667</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>44907</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44580</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>45869.48996527777</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>45610.60292824074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>45369.48751157407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>46008</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45708.3696875</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44873.55592592592</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>44507</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44886.84512731482</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>44841</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>44809</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>44673.46701388889</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>44711</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44271</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>44473.70909722222</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>44481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44523.87792824074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44866</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>44834</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>44274.42447916666</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>44347</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>44665.62245370371</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>44832.36969907407</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>44747.36435185185</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>44301.39192129629</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>44371</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>44673.46445601852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>44852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44832.3636574074</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44832.38378472222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>44537</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44285</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>44461</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44545.36984953703</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>44538</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>44481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>44279</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>44728.47261574074</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>44839</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>44575.42550925926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44523</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>44832.36671296296</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44460</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44693</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44747.35753472222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44803.62625</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>44257</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>44301.38633101852</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44846</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44866.48938657407</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44523</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44237</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>44545.37116898148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>45591.58818287037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44728.4884837963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44711.66092592593</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>45460.33451388889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>45758.37665509259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44274</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>45301.50878472222</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>44657.42840277778</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>44557</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>45572.46131944445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>45769.63548611111</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45490.39458333333</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>45204</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>44545.36866898148</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>45715.30601851852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>45736.63283564815</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>45747.61622685185</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>45301.51200231481</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>45301.57123842592</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45301.57719907408</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>45062</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>45707.65875</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>45707.6619212963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>45327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>45222.42771990741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>45561.61577546296</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>45163</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>45163</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44614.39498842593</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>45670.49219907408</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44405</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>45467</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44445.52287037037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>45729.49674768518</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>45335</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>45222</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44887.31924768518</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>45740.49010416667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>45809</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>45809</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>45190</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>45819.57790509259</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>45141</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>45896.54732638889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>45896.51782407407</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>45819.59641203703</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>45020.45096064815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>45819.62172453704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>45902.4568287037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>45902.47564814815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>45062</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>45798.65913194444</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>45086.62486111111</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>45720.45877314815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>45908.68037037037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>45146.48567129629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>45911.64513888889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>45911.66439814815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>45259</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>45698.56226851852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>45912.48917824074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>45912.49136574074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>45917.6128587963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>45917.59836805556</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>45604.36541666667</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>45917.50763888889</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>45917.7077662037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>45917.55313657408</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>45917.60946759259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>45916.56532407407</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>45078.47771990741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>45919.65428240741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>45918.3581712963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>45222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>45467.63711805556</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>45924.65796296296</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>45924.66167824074</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>45924.69474537037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>45924.65523148148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>45817</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>45924.67244212963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>45924.69034722223</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>45924.70638888889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>45917</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>45929</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>45733.51623842592</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>45372.46034722222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>45163</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45834.55734953703</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45924</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45930.64416666667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>44836</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>45210</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>45554.68709490741</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>45937.82136574074</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>45156</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>45678.73885416667</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11136,7 +11136,7 @@
         <v>45050.91261574074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         <v>45943.58123842593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>45943.58487268518</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>45943.60009259259</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>45646.54402777777</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>45943.47072916666</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>45943.58841435185</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>45943.6352662037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>45940.6375</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>45943.56776620371</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>45943.36802083333</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11808,7 +11808,7 @@
         <v>45943.37984953704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11870,7 +11870,7 @@
         <v>45782.51927083333</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11927,7 +11927,7 @@
         <v>45943.49570601852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>45943.56265046296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44673.4696875</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>45945.62560185185</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>45945.62715277778</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>45511</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>45670.67089120371</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>45782.51542824074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>45825</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>45947.47361111111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44274.41601851852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>45855.49415509259</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>45614.45748842593</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>45860.62929398148</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>45867</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>45867.40793981482</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>45867</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>45867.44660879629</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>45869.36848379629</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>45954.55710648148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>45954.51167824074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44456</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>45187</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44692</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44914</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>45259</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>45880</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>45877</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>44803.73353009259</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>45877</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>45343</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>45965.63539351852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>45860.62039351852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>45860.62782407407</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>45965.62938657407</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>45965.65302083334</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>45965.56792824074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>45965.64679398148</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>45965.57197916666</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>45860.62597222222</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>45965.57989583333</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>45880.32181712963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14406,7 +14406,7 @@
         <v>45320</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>45720.46690972222</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         <v>44937.66346064815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         <v>45883</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>45713.33119212963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>45973.9084375</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>45973.91414351852</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14830,7 +14830,7 @@
         <v>45973.89113425926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>45579.59450231482</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>45720.27141203704</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>45979.68559027778</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44557</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>46021.41819444444</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45758.4608912037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44980</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>46021.48487268519</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45021.61027777778</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>45981.33721064815</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>45152.89226851852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>45981.32298611111</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>45462</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44979.71133101852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45985.62886574074</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>45985.63326388889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>45390.3405324074</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45986.63145833334</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>45986.63686342593</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>45986.65363425926</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>45986.65777777778</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45106.43715277778</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44886.44074074074</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>45989.593125</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>45989.60222222222</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>45092</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>45027.6528125</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>45587.39556712963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>46031.47633101852</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>45747.61591435185</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16702,7 +16702,7 @@
         <v>45747.62706018519</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>46030.65783564815</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>45197</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>45020.4886574074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44488.59386574074</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>45337.60327546296</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>45537.33893518519</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>45992.66304398148</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>45020.49516203703</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44497</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>46036.48001157407</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>45559.40622685185</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>45079</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>45995.63800925926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>45324.33511574074</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>45551.65215277778</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>45996.43736111111</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>45145.4506712963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>45614.43695601852</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>46002.66152777777</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>46002.65616898148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17954,7 +17954,7 @@
         <v>46044.3990625</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18011,7 +18011,7 @@
         <v>46003.58892361111</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18068,7 +18068,7 @@
         <v>46002.85204861111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>46002.36289351852</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>44740.59423611111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18249,7 +18249,7 @@
         <v>46003.59415509259</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         <v>45747.46194444445</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>46048.27512731482</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>45013.66702546296</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>45552</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>44980</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45190</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>46008.60930555555</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18730,7 +18730,7 @@
         <v>44908.53690972222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>46008.63685185185</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>46008.39512731481</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>45072.47387731481</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>45020.48318287037</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>45429.84030092593</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>45086.65193287037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>46056</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19201,7 +19201,7 @@
         <v>44872.35686342593</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44886.84479166667</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44886</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44887.30880787037</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>45581.58351851852</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>45769.23976851852</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44515</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>45580.34663194444</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>45600.56137731481</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45600.57158564815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>45222.63094907408</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>45462</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45117.66069444444</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45078.43443287037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>44384</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>44858</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         <v>44650</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>44831.41400462963</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45205</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20339,7 +20339,7 @@
         <v>45301</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45226.59262731481</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>45614.39777777778</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>45020.5508912037</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>45097.68216435185</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>45614.73055555556</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>45156</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>45673</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20810,7 +20810,7 @@
         <v>44822</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         <v>45220.66263888889</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20924,7 +20924,7 @@
         <v>45222.43846064815</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20981,7 +20981,7 @@
         <v>45702</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>45222.4180787037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>45020.4759375</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44859</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>45747.58354166667</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45364.64773148148</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45146.62869212963</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45062</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44904</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45246</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>44980.25599537037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>44858.5522337963</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>45258.60165509259</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>44914</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21809,7 +21809,7 @@
         <v>45758.64047453704</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21871,7 +21871,7 @@
         <v>45575.63452546296</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         <v>45301.56914351852</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21990,7 +21990,7 @@
         <v>45301.57965277778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22047,7 +22047,7 @@
         <v>45163</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22109,7 +22109,7 @@
         <v>44672</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22166,7 +22166,7 @@
         <v>44259</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22228,7 +22228,7 @@
         <v>45072.47035879629</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
         <v>45747.42486111111</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22347,7 +22347,7 @@
         <v>45429.83706018519</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22404,7 +22404,7 @@
         <v>45365.56921296296</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22461,7 +22461,7 @@
         <v>45210</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22518,7 +22518,7 @@
         <v>44942</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22575,7 +22575,7 @@
         <v>45089.41094907407</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22632,7 +22632,7 @@
         <v>45020.48547453704</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>45020.49787037037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>45301.57243055556</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>45301</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22860,7 +22860,7 @@
         <v>45163.87773148148</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>45554.69435185185</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>45782.46883101852</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23036,7 +23036,7 @@
         <v>45342</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>45147</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45117</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>45797</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>45796.51148148148</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>45797</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>

--- a/Översikt BOXHOLM.xlsx
+++ b/Översikt BOXHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45911.47519675926</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>46008.57405092593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>46002.69190972222</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>45894.52324074074</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>45904.37657407407</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45629.38376157408</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45532</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>45870.40766203704</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>46002.68706018518</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44537</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45170</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>46002.69612268519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>46044.39729166667</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>46029</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>44593.60979166667</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>44907</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44580</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>45869.48996527777</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>45610.60292824074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>45369.48751157407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>46008</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45708.3696875</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44873.55592592592</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>44507</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44886.84512731482</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>44841</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>44809</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>44673.46701388889</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>44711</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44271</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>44473.70909722222</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>44481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44523.87792824074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44866</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>44834</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>44274.42447916666</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>44347</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>44665.62245370371</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>44832.36969907407</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>44747.36435185185</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>44301.39192129629</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>44371</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>44673.46445601852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>44852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44832.3636574074</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44832.38378472222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>44537</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44285</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>44461</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44545.36984953703</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>44538</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>44481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>44279</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>44728.47261574074</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>44839</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>44575.42550925926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44523</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>44832.36671296296</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44460</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44693</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44747.35753472222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44803.62625</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>44257</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>44301.38633101852</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44846</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44866.48938657407</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44523</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44237</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>44545.37116898148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>45591.58818287037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44728.4884837963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44711.66092592593</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>45460.33451388889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>45758.37665509259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44274</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>45301.50878472222</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>44657.42840277778</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>44557</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>45572.46131944445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>45769.63548611111</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45490.39458333333</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>45204</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>44545.36866898148</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>45715.30601851852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>45736.63283564815</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>45747.61622685185</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>45301.51200231481</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>45301.57123842592</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45301.57719907408</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>45062</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>45707.65875</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>45707.6619212963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>45327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>45222.42771990741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>45561.61577546296</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>45163</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>45163</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44614.39498842593</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>45670.49219907408</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44405</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>45467</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44445.52287037037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>45729.49674768518</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>45335</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>45222</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44887.31924768518</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>45740.49010416667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>45809</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>45809</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>45190</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>45819.57790509259</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>45141</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>45896.54732638889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>45896.51782407407</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>45819.59641203703</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>45020.45096064815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>45819.62172453704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>45902.4568287037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>45902.47564814815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>45062</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>45798.65913194444</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>45086.62486111111</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>45720.45877314815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>45908.68037037037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>45146.48567129629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>45911.64513888889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>45911.66439814815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>45259</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>45698.56226851852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>45912.48917824074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>45912.49136574074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>45917.6128587963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>45917.59836805556</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>45604.36541666667</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>45917.50763888889</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>45917.7077662037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>45917.55313657408</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>45917.60946759259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>45916.56532407407</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>45078.47771990741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>45919.65428240741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>45918.3581712963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>45222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>45467.63711805556</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>45924.65796296296</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>45924.66167824074</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>45924.69474537037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>45924.65523148148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>45817</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>45924.67244212963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>45924.69034722223</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>45924.70638888889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>45917</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>45929</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>45733.51623842592</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>45372.46034722222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>45163</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45834.55734953703</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45924</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45930.64416666667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>44836</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>45210</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>45554.68709490741</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>45937.82136574074</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>45156</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>45678.73885416667</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11136,7 +11136,7 @@
         <v>45050.91261574074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         <v>45943.58123842593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>45943.58487268518</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>45943.60009259259</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>45646.54402777777</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>45943.47072916666</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>45943.58841435185</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>45943.6352662037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>45940.6375</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>45943.56776620371</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>45943.36802083333</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11808,7 +11808,7 @@
         <v>45943.37984953704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11870,7 +11870,7 @@
         <v>45782.51927083333</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11927,7 +11927,7 @@
         <v>45943.49570601852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>45943.56265046296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44673.4696875</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>45945.62560185185</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>45945.62715277778</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>45511</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>45670.67089120371</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>45782.51542824074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>45825</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>45947.47361111111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44274.41601851852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>45855.49415509259</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>45614.45748842593</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>45860.62929398148</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>45867</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>45867.40793981482</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>45867</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>45867.44660879629</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>45869.36848379629</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>45954.55710648148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>45954.51167824074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44456</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>45187</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44692</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44914</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>45259</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>45880</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>45877</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>44803.73353009259</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>45877</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>45343</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>45965.63539351852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>45860.62039351852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>45860.62782407407</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>45965.62938657407</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>45965.65302083334</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>45965.56792824074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>45965.64679398148</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>45965.57197916666</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>45860.62597222222</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>45965.57989583333</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>45880.32181712963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14406,7 +14406,7 @@
         <v>45320</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>45720.46690972222</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         <v>44937.66346064815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         <v>45883</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>45713.33119212963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>45973.9084375</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>45973.91414351852</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14830,7 +14830,7 @@
         <v>45973.89113425926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>45579.59450231482</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>45720.27141203704</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>45979.68559027778</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44557</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>46021.41819444444</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45758.4608912037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44980</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>46021.48487268519</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45021.61027777778</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>45981.33721064815</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>45152.89226851852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>45981.32298611111</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>45462</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44979.71133101852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45985.62886574074</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>45985.63326388889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>45390.3405324074</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45986.63145833334</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>45986.63686342593</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>45986.65363425926</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>45986.65777777778</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45106.43715277778</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44886.44074074074</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>45989.593125</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>45989.60222222222</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>45092</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>45027.6528125</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>45587.39556712963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>46031.47633101852</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>45747.61591435185</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16702,7 +16702,7 @@
         <v>45747.62706018519</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>46030.65783564815</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>45197</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>45020.4886574074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44488.59386574074</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>45337.60327546296</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>45537.33893518519</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>45992.66304398148</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>45020.49516203703</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44497</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>46036.48001157407</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>45559.40622685185</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>45079</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>45995.63800925926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>45324.33511574074</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>45551.65215277778</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>45996.43736111111</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>45145.4506712963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>45614.43695601852</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>46002.66152777777</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>46002.65616898148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17954,7 +17954,7 @@
         <v>46044.3990625</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18011,7 +18011,7 @@
         <v>46003.58892361111</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18068,7 +18068,7 @@
         <v>46002.85204861111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>46002.36289351852</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>44740.59423611111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18249,7 +18249,7 @@
         <v>46003.59415509259</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         <v>45747.46194444445</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>46048.27512731482</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>45013.66702546296</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>45552</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>44980</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45190</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>46008.60930555555</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18730,7 +18730,7 @@
         <v>44908.53690972222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>46008.63685185185</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>46008.39512731481</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>45072.47387731481</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>45020.48318287037</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>45429.84030092593</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>45086.65193287037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>46056</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19201,7 +19201,7 @@
         <v>44872.35686342593</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44886.84479166667</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44886</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44887.30880787037</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>45581.58351851852</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>45769.23976851852</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44515</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>45580.34663194444</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>45600.56137731481</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45600.57158564815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>45222.63094907408</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>45462</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45117.66069444444</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45078.43443287037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>44384</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>44858</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         <v>44650</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>44831.41400462963</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45205</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20339,7 +20339,7 @@
         <v>45301</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45226.59262731481</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>45614.39777777778</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>45020.5508912037</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>45097.68216435185</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>45614.73055555556</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>45156</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>45673</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20810,7 +20810,7 @@
         <v>44822</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         <v>45220.66263888889</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20924,7 +20924,7 @@
         <v>45222.43846064815</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20981,7 +20981,7 @@
         <v>45702</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>45222.4180787037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>45020.4759375</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44859</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>45747.58354166667</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45364.64773148148</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45146.62869212963</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45062</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44904</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45246</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>44980.25599537037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>44858.5522337963</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>45258.60165509259</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>44914</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21809,7 +21809,7 @@
         <v>45758.64047453704</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21871,7 +21871,7 @@
         <v>45575.63452546296</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         <v>45301.56914351852</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21990,7 +21990,7 @@
         <v>45301.57965277778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22047,7 +22047,7 @@
         <v>45163</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22109,7 +22109,7 @@
         <v>44672</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22166,7 +22166,7 @@
         <v>44259</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22228,7 +22228,7 @@
         <v>45072.47035879629</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
         <v>45747.42486111111</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22347,7 +22347,7 @@
         <v>45429.83706018519</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22404,7 +22404,7 @@
         <v>45365.56921296296</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22461,7 +22461,7 @@
         <v>45210</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22518,7 +22518,7 @@
         <v>44942</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22575,7 +22575,7 @@
         <v>45089.41094907407</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22632,7 +22632,7 @@
         <v>45020.48547453704</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>45020.49787037037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>45301.57243055556</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>45301</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22860,7 +22860,7 @@
         <v>45163.87773148148</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>45554.69435185185</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>45782.46883101852</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23036,7 +23036,7 @@
         <v>45342</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>45147</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45117</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>45797</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>45796.51148148148</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>45797</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
